--- a/Capitulo6/doc/EstudioRendimiento.xlsx
+++ b/Capitulo6/doc/EstudioRendimiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanso\Desktop\3r-2n quatri\Algorismes Avançats\algoritmos-avanzados\Capitulo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528D8203-1CCC-4912-A01B-8D23505A6859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D1D90E-D45A-44B9-AFA3-D554C2B755E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,10 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>INCORRECT POSITIONS</t>
   </si>
@@ -3979,15 +3976,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>29360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>62753</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>519953</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4014,16 +4011,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>569258</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>407894</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>555810</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>439270</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4514,55 +4511,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AJ74"/>
+  <dimension ref="B1:AJ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView tabSelected="1" topLeftCell="K15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="31" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.3">
@@ -4602,34 +4601,34 @@
         <v>18696900</v>
       </c>
       <c r="AA3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>13</v>
-      </c>
       <c r="AF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>8</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>9</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>10</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.3">
@@ -6108,20 +6107,25 @@
         <f>SUM(F$3:F24)/COUNT(F$3:F24)</f>
         <v>56636100</v>
       </c>
-      <c r="AA24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>0</v>
+      <c r="AA24">
+        <f>AVERAGE(_4ADJACENT_TILE_REVERSAL[ADJACENT TILE REVERSAL])</f>
+        <v>447149995725.04999</v>
+      </c>
+      <c r="AB24">
+        <f>AVERAGE(_4EUCLIDEAN[EUCLIDEAN])</f>
+        <v>125157005290</v>
+      </c>
+      <c r="AC24">
+        <f>AVERAGE(_4INCORRECT_POSITIONS[INCORRECT POSITIONS])</f>
+        <v>446477209574.95001</v>
+      </c>
+      <c r="AD24">
+        <f>AVERAGE(_4MANHATTAN[MANHATTAN DISTANCE])</f>
+        <v>251710132735</v>
+      </c>
+      <c r="AE24">
+        <f>AVERAGE(_4OUT_OF_ROW_OUT_OF_COLUMN[OUT ROW/COL])</f>
+        <v>300103916320</v>
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.3">
@@ -6160,6 +6164,26 @@
         <f>SUM(F$3:F25)/COUNT(F$3:F25)</f>
         <v>58445582.608695649</v>
       </c>
+      <c r="AA25">
+        <f>AA24/1000000000</f>
+        <v>447.14999572504996</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" ref="AB25:AE25" si="0">AB24/1000000000</f>
+        <v>125.15700529</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="0"/>
+        <v>446.47720957495</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="0"/>
+        <v>251.710132735</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="0"/>
+        <v>300.10391632</v>
+      </c>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B26">
@@ -6270,6 +6294,14 @@
       <c r="K28">
         <f>SUM(F$3:F28)/COUNT(F$3:F28)</f>
         <v>56350246.115384616</v>
+      </c>
+      <c r="AC28">
+        <f>AVERAGE(AA25,AC25,AD25,AE25)</f>
+        <v>361.36031358874999</v>
+      </c>
+      <c r="AD28">
+        <f>60*4</f>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.3">
@@ -7908,42 +7940,54 @@
         <v>55426810</v>
       </c>
       <c r="C73">
-        <f>AVERAGE(_3ADJACENT_TILE_REVERSAL[ADJACENT TILE REVERSAL])</f>
-        <v>55426810</v>
+        <f>AVERAGE(_3EUCLIDEAN[EUCLIDEAN DISTANCE])</f>
+        <v>52576670</v>
       </c>
       <c r="D73">
-        <f>AVERAGE(_3ADJACENT_TILE_REVERSAL[ADJACENT TILE REVERSAL])</f>
-        <v>55426810</v>
+        <f>AVERAGE(_3INCORRECT_POSITIONS[INCORRECT POSITIONS])</f>
+        <v>43250557.142857142</v>
       </c>
       <c r="E73">
-        <f>AVERAGE(_3ADJACENT_TILE_REVERSAL[ADJACENT TILE REVERSAL])</f>
-        <v>55426810</v>
+        <f>AVERAGE(_3MANHATTAN[MANHATTAN DISTANCE])</f>
+        <v>55919735.714285716</v>
       </c>
       <c r="F73">
-        <f>AVERAGE(_3ADJACENT_TILE_REVERSAL[ADJACENT TILE REVERSAL])</f>
-        <v>55426810</v>
+        <f>AVERAGE(_3OUT_OF_ROW_OUT_OF_COLUMN[OUT OF ROW/COLUMN])</f>
+        <v>57401455.700000003</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B74">
-        <f>_xlfn.STDEV.S(B3:B73)</f>
-        <v>52185975.667842135</v>
+        <f>B73/1000000000</f>
+        <v>5.542681E-2</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:F74" si="0">_xlfn.STDEV.S(C3:C73)</f>
-        <v>50172141.05842834</v>
+        <f>C73/1000000000</f>
+        <v>5.2576669999999999E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="0"/>
-        <v>43392398.976837166</v>
+        <f t="shared" ref="D74:F74" si="1">D73/1000000000</f>
+        <v>4.3250557142857145E-2</v>
       </c>
       <c r="E74">
-        <f t="shared" si="0"/>
-        <v>47394793.708246425</v>
+        <f t="shared" si="1"/>
+        <v>5.5919735714285719E-2</v>
       </c>
       <c r="F74">
-        <f t="shared" si="0"/>
-        <v>48213311.183758155</v>
+        <f t="shared" si="1"/>
+        <v>5.7401455700000006E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <f>AVERAGE(B74,C74,E74,F74)</f>
+        <v>5.5331167853571436E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <f>1-D74/C78</f>
+        <v>0.21833283444666218</v>
       </c>
     </row>
   </sheetData>
